--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/template-repo-data-analysis/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141E4A58-8C37-6F47-B1C5-5232D79AD228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD29CF14-A814-BD44-9B73-72D41DF5E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2480" windowWidth="41880" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>key</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Biodiversity for Opportunities, Livelihoods and Development (BOLD)</t>
   </si>
   <si>
-    <t>https://github.com/AgrDataSci/template-repo-data-analysis</t>
-  </si>
-  <si>
     <t>cropontologycop</t>
   </si>
   <si>
@@ -182,22 +179,139 @@
     <t>University of Inland Norway</t>
   </si>
   <si>
-    <t>This is a generic template to allow scientists in using a well structured data workflow following the project-oriented approach and findable accessible interoperable and reusable (FAIR) principles for data and code publication in science. The project contains a example of data from the CIMMYT market intelligence research (Donovan et al 2025, https://doi.org/10.1017/S001447972500002X) with data description and an example of R script for analysis and documentation. Feel free to delete the example files once the project is adapted for your needs.</t>
-  </si>
-  <si>
-    <t>A FAIR and project-oriented template for open science data workflows</t>
-  </si>
-  <si>
-    <t>data-driven research; FAIR principles; data management; open science</t>
-  </si>
-  <si>
     <t>Bioversity International</t>
   </si>
   <si>
     <t>v1.2</t>
   </si>
   <si>
-    <t>2025-06-09</t>
+    <t>Almendra</t>
+  </si>
+  <si>
+    <t>Cremaschi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob </t>
+  </si>
+  <si>
+    <t>van Etten</t>
+  </si>
+  <si>
+    <t>Madriz</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Manners</t>
+  </si>
+  <si>
+    <t>Rhys</t>
+  </si>
+  <si>
+    <t>Svein Øivind</t>
+  </si>
+  <si>
+    <t>Solberg</t>
+  </si>
+  <si>
+    <t>MrBot</t>
+  </si>
+  <si>
+    <t>International Institute of Tropical Agriculture</t>
+  </si>
+  <si>
+    <t>N'danikou</t>
+  </si>
+  <si>
+    <t>World Vegetable Center</t>
+  </si>
+  <si>
+    <t>Sognigbé</t>
+  </si>
+  <si>
+    <t>Osmane</t>
+  </si>
+  <si>
+    <t>Boukar</t>
+  </si>
+  <si>
+    <t>Maarten</t>
+  </si>
+  <si>
+    <t>van Zonneveld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lys Amavi </t>
+  </si>
+  <si>
+    <t>Aglinglo</t>
+  </si>
+  <si>
+    <t>Ayenan</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>0000-0001-8932-5626</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>Nabateregga</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t>International Maize and Wheat Improvement Center</t>
+  </si>
+  <si>
+    <t>Christopher Ochieng</t>
+  </si>
+  <si>
+    <t>Ojiewo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganga Rao V. P. R. </t>
+  </si>
+  <si>
+    <t>Nadigatla</t>
+  </si>
+  <si>
+    <t>International Center for Biosaline Agriculture</t>
+  </si>
+  <si>
+    <t>AVISA</t>
+  </si>
+  <si>
+    <t>INV-009649</t>
+  </si>
+  <si>
+    <t>The triadic comparison of technology options data from XX on-farm experimental trials in YY countries</t>
+  </si>
+  <si>
+    <t>2025-09-06</t>
+  </si>
+  <si>
+    <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. ‘Triadic’ refers to the sets of three technology options that are compared by each participant. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. […] Between 2011 and 2025 the tricot approach was applied in XX countries in Central America, Sub-Saharan Africa and Asia with YY crops.</t>
+  </si>
+  <si>
+    <t>citizen science; participatory variety testing; FAIR data; digital innovation</t>
+  </si>
+  <si>
+    <t>Patrick Obia</t>
+  </si>
+  <si>
+    <t>Ongom</t>
+  </si>
+  <si>
+    <t>https://github.com/AgrDataSci/tricot-data</t>
   </si>
 </sst>
 </file>
@@ -592,14 +706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -631,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -642,12 +756,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -679,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -687,29 +801,32 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{26686852-8F30-6A4D-9650-887F09726F1C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -747,10 +864,10 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,7 +884,181 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,6 +1121,20 @@
       </c>
       <c r="D3" s="3" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -863,10 +1168,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD29CF14-A814-BD44-9B73-72D41DF5E389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F57E6-856E-FB4B-88B2-ACEDACB9B134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2480" windowWidth="41880" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="600" windowWidth="41880" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>key</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Bioversity International</t>
   </si>
   <si>
-    <t>v1.2</t>
-  </si>
-  <si>
     <t>Almendra</t>
   </si>
   <si>
@@ -312,6 +309,18 @@
   </si>
   <si>
     <t>https://github.com/AgrDataSci/tricot-data</t>
+  </si>
+  <si>
+    <t>BMZ</t>
+  </si>
+  <si>
+    <t>Choose, Grow, Thrive: Using citizen science in expanding West Africa's food basket with African vegetables to tackle malnutrition (BMZ-CGT)”</t>
+  </si>
+  <si>
+    <t>https://ror.org/00e0ttj68</t>
+  </si>
+  <si>
+    <t>v1</t>
   </si>
 </sst>
 </file>
@@ -706,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -729,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -761,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -889,13 +898,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -906,87 +915,87 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
         <v>80</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
       </c>
       <c r="E12" t="s">
         <v>50</v>
@@ -994,46 +1003,46 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
         <v>85</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
         <v>61</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>50</v>
@@ -1041,21 +1050,21 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -1068,17 +1077,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,11 +1141,28 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
+        <v>81260859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F57E6-856E-FB4B-88B2-ACEDACB9B134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819254C-80F4-D248-B922-1D2566AF6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="600" windowWidth="41880" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="600" windowWidth="41880" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>key</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Shango</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -823,10 +829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,34 +1045,45 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>51</v>
       </c>
     </row>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4819254C-80F4-D248-B922-1D2566AF6E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD40242-3190-084E-A3DB-46EE40DC8079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="600" windowWidth="41880" windowHeight="20000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="authors" sheetId="2" r:id="rId2"/>
-    <sheet name="funders" sheetId="3" r:id="rId3"/>
-    <sheet name="communities" sheetId="4" r:id="rId4"/>
-    <sheet name="dates" sheetId="5" r:id="rId5"/>
+    <sheet name="roles_options" sheetId="6" r:id="rId3"/>
+    <sheet name="funders" sheetId="3" r:id="rId4"/>
+    <sheet name="communities" sheetId="4" r:id="rId5"/>
+    <sheet name="dates" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
   <si>
     <t>key</t>
   </si>
@@ -218,9 +219,6 @@
     <t>International Institute of Tropical Agriculture</t>
   </si>
   <si>
-    <t>N'danikou</t>
-  </si>
-  <si>
     <t>World Vegetable Center</t>
   </si>
   <si>
@@ -327,6 +325,219 @@
   </si>
   <si>
     <t>Shango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric C. </t>
+  </si>
+  <si>
+    <t>Legba</t>
+  </si>
+  <si>
+    <t>0009-0008-8284-0463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristide Carlos </t>
+  </si>
+  <si>
+    <t>Houdegbe</t>
+  </si>
+  <si>
+    <t>0000-0003-3774-5658</t>
+  </si>
+  <si>
+    <t>University of Abomey-Calavi</t>
+  </si>
+  <si>
+    <t>0000-0002-7875-4756</t>
+  </si>
+  <si>
+    <t>0000-0002-4163-8567</t>
+  </si>
+  <si>
+    <t>N'Danikou</t>
+  </si>
+  <si>
+    <t>0000-0002-0233-8385</t>
+  </si>
+  <si>
+    <t>0009-0005-1515-4699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danfing dit Youssouf </t>
+  </si>
+  <si>
+    <t>Diarra</t>
+  </si>
+  <si>
+    <t>0009-0006-0868-6571</t>
+  </si>
+  <si>
+    <t>dataproducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aminata </t>
+  </si>
+  <si>
+    <t>Dolo</t>
+  </si>
+  <si>
+    <t>Institut d'Economie Rurale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amadou </t>
+  </si>
+  <si>
+    <t>Sidibe</t>
+  </si>
+  <si>
+    <t>Colette Ouidyam</t>
+  </si>
+  <si>
+    <t>Ouedraogo</t>
+  </si>
+  <si>
+    <t>0000-0002-1997-3684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harouna </t>
+  </si>
+  <si>
+    <t>Coulibaly</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Mlaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enoch G. </t>
+  </si>
+  <si>
+    <t>Achigan-Dako</t>
+  </si>
+  <si>
+    <t>0000-0002-5493-0516</t>
+  </si>
+  <si>
+    <t>0009-0004-5010-3355</t>
+  </si>
+  <si>
+    <t>Tanzania Agricultural Research Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aishi </t>
+  </si>
+  <si>
+    <t>Kileo</t>
+  </si>
+  <si>
+    <t>0009-0005-5327-6769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dickson </t>
+  </si>
+  <si>
+    <t>Malulu</t>
+  </si>
+  <si>
+    <t>Zamira</t>
+  </si>
+  <si>
+    <t>Matumbo</t>
+  </si>
+  <si>
+    <t>0009-0005-4091-782X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joost </t>
+  </si>
+  <si>
+    <t>van Heerwaarden</t>
+  </si>
+  <si>
+    <t>0000-0002-4959-3914</t>
+  </si>
+  <si>
+    <t>Wageningen University and Research</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Hugo Dorado-Betancourt</t>
+  </si>
+  <si>
+    <t>0000-0002-0103-7505</t>
+  </si>
+  <si>
+    <t>projectleader</t>
+  </si>
+  <si>
+    <t>annotator</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
+    <t>DataCollector</t>
+  </si>
+  <si>
+    <t>DataCurator</t>
+  </si>
+  <si>
+    <t>DataManager</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>HostingInstitution</t>
+  </si>
+  <si>
+    <t>Producer</t>
+  </si>
+  <si>
+    <t>ProjectLeader</t>
+  </si>
+  <si>
+    <t>ProjectManager</t>
+  </si>
+  <si>
+    <t>ProjectMember</t>
+  </si>
+  <si>
+    <t>RegistrationAgency</t>
+  </si>
+  <si>
+    <t>RegistrationAuthority</t>
+  </si>
+  <si>
+    <t>RelatedPerson</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>ResearchGroup</t>
+  </si>
+  <si>
+    <t>RightsHolder</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Translator</t>
+  </si>
+  <si>
+    <t>WorkPackageLeader</t>
   </si>
 </sst>
 </file>
@@ -744,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -752,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -760,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -808,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,49 +1115,61 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
-        <v>72</v>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
-        <v>68</v>
+      <c r="D7" t="s">
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -954,136 +1177,410 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>146</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B33" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1093,6 +1590,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6725CCA-8D7D-C443-B1F1-DD208F0EE7C9}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView zoomScale="254" zoomScaleNormal="254" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F29">
+    <sortCondition ref="B1:B29"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1158,21 +1782,21 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
       <c r="D5">
         <v>81260859</v>
@@ -1189,7 +1813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1223,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD40242-3190-084E-A3DB-46EE40DC8079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A88FDF-BC31-7644-A619-145DF34DD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
   <si>
     <t>key</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Sognigbé</t>
   </si>
   <si>
-    <t>Osmane</t>
-  </si>
-  <si>
     <t>Boukar</t>
   </si>
   <si>
@@ -538,6 +535,30 @@
   </si>
   <si>
     <t>WorkPackageLeader</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t>0000-0002-5303-3602</t>
+  </si>
+  <si>
+    <t>0000-0002-4491-4483</t>
+  </si>
+  <si>
+    <t>0000-0001-7554-2558</t>
+  </si>
+  <si>
+    <t>0000-0002-2885-9381</t>
+  </si>
+  <si>
+    <t>0000-0003-0213-5462</t>
+  </si>
+  <si>
+    <t>0000-0002-1304-8877</t>
+  </si>
+  <si>
+    <t>projectmanager</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -625,6 +646,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -955,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1043,15 +1067,15 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1115,33 +1139,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
@@ -1149,13 +1173,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -1163,13 +1187,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -1177,16 +1201,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" t="s">
-        <v>125</v>
-      </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1197,10 +1221,10 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1208,81 +1232,84 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>112</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
         <v>117</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
         <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="s">
         <v>145</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>146</v>
       </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -1290,33 +1317,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" t="s">
-        <v>134</v>
-      </c>
       <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
         <v>131</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -1330,7 +1357,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
@@ -1338,19 +1365,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
       </c>
-      <c r="B18" t="s">
-        <v>137</v>
-      </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,8 +1387,11 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -1369,30 +1399,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
         <v>138</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>139</v>
       </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
       </c>
-      <c r="B21" t="s">
-        <v>127</v>
-      </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>64</v>
@@ -1403,13 +1433,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1417,13 +1447,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>76</v>
       </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
@@ -1431,44 +1461,50 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
-        <v>81</v>
+      <c r="C25" t="s">
+        <v>174</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
-        <v>92</v>
+      <c r="C26" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
@@ -1476,16 +1512,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" t="s">
         <v>121</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>122</v>
       </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s">
         <v>64</v>
@@ -1493,16 +1529,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
-        <v>99</v>
-      </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
@@ -1510,16 +1546,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
         <v>119</v>
       </c>
-      <c r="B29" t="s">
-        <v>120</v>
-      </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1529,8 +1565,11 @@
       <c r="B30" t="s">
         <v>61</v>
       </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -1538,33 +1577,33 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>142</v>
-      </c>
-      <c r="C31" t="s">
-        <v>143</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
         <v>64</v>
@@ -1577,8 +1616,11 @@
       <c r="B33" t="s">
         <v>55</v>
       </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
@@ -1605,107 +1647,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1782,21 +1824,21 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
       </c>
       <c r="D5">
         <v>81260859</v>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A88FDF-BC31-7644-A619-145DF34DD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1A7A2-4266-DC49-B30D-8C81F0127755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -285,18 +285,12 @@
     <t>INV-009649</t>
   </si>
   <si>
-    <t>The triadic comparison of technology options data from XX on-farm experimental trials in YY countries</t>
-  </si>
-  <si>
     <t>2025-09-06</t>
   </si>
   <si>
     <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. ‘Triadic’ refers to the sets of three technology options that are compared by each participant. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. […] Between 2011 and 2025 the tricot approach was applied in XX countries in Central America, Sub-Saharan Africa and Asia with YY crops.</t>
   </si>
   <si>
-    <t>citizen science; participatory variety testing; FAIR data; digital innovation</t>
-  </si>
-  <si>
     <t>Patrick Obia</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
   </si>
   <si>
     <t>projectmanager</t>
+  </si>
+  <si>
+    <t>Global multi-crop agricultural trial data supported by citizen science</t>
+  </si>
+  <si>
+    <t>participatory variety testing; digital innovation; tricot approach; FAIR data</t>
   </si>
 </sst>
 </file>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" t="s">
-        <v>129</v>
-      </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,10 +1162,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
@@ -1179,7 +1179,7 @@
         <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -1187,13 +1187,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
         <v>63</v>
@@ -1201,16 +1201,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
         <v>51</v>
@@ -1232,33 +1232,33 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,10 +1269,10 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
         <v>78</v>
@@ -1280,36 +1280,36 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -1317,33 +1317,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
         <v>64</v>
@@ -1357,7 +1357,7 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>62</v>
@@ -1365,19 +1365,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,10 +1388,10 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>63</v>
@@ -1399,30 +1399,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
-        <v>139</v>
-      </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>64</v>
@@ -1433,13 +1433,13 @@
         <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
@@ -1453,7 +1453,7 @@
         <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
         <v>50</v>
@@ -1467,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
@@ -1484,10 +1484,10 @@
         <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>78</v>
@@ -1495,16 +1495,16 @@
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>63</v>
@@ -1512,16 +1512,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
         <v>120</v>
       </c>
-      <c r="B27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
-      </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>64</v>
@@ -1529,16 +1529,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
@@ -1546,16 +1546,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,10 +1566,10 @@
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -1577,19 +1577,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
         <v>140</v>
-      </c>
-      <c r="B31" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1600,10 +1600,10 @@
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
         <v>64</v>
@@ -1617,10 +1617,10 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
         <v>51</v>
@@ -1647,107 +1647,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>81260859</v>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E1A7A2-4266-DC49-B30D-8C81F0127755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A445EF-6A73-C241-AED4-FD89F8BE7E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>cc-by-4.0</t>
-  </si>
-  <si>
     <t>given_name</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>participatory variety testing; digital innovation; tricot approach; FAIR data</t>
+  </si>
+  <si>
+    <t>cc-by-sa-4.0</t>
   </si>
 </sst>
 </file>
@@ -957,7 +957,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1082,548 +1082,548 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
-        <v>122</v>
-      </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>110</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" t="s">
-        <v>112</v>
-      </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
         <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D12" t="s">
-        <v>145</v>
-      </c>
-      <c r="E12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
         <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
         <v>142</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s">
         <v>130</v>
       </c>
-      <c r="B15" t="s">
-        <v>131</v>
-      </c>
       <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" t="s">
         <v>97</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>98</v>
       </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
         <v>133</v>
       </c>
-      <c r="B18" t="s">
-        <v>134</v>
-      </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
         <v>135</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
-        <v>137</v>
-      </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
         <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>80</v>
-      </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
         <v>118</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" t="s">
-        <v>120</v>
-      </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
         <v>140</v>
-      </c>
-      <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1647,107 +1647,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1776,69 +1776,69 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>92</v>
       </c>
       <c r="D5">
         <v>81260859</v>
@@ -1870,18 +1870,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1904,10 +1904,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +1923,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A445EF-6A73-C241-AED4-FD89F8BE7E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786F9D7-E685-C245-9842-DFD119290AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="660" windowWidth="46920" windowHeight="23940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="183">
   <si>
     <t>key</t>
   </si>
@@ -559,6 +559,21 @@
   </si>
   <si>
     <t>cc-by-sa-4.0</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Daudi</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>International Potato Center</t>
   </si>
 </sst>
 </file>
@@ -956,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1064,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,27 +1247,30 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>111</v>
@@ -1263,366 +1281,394 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
         <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
         <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>62</v>
+      <c r="F26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>106</v>
+        <v>88</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
         <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>170</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>144</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>50</v>
       </c>
     </row>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786F9D7-E685-C245-9842-DFD119290AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA7FC0-22AC-0047-84D5-851829FA45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="500" windowWidth="55880" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="314">
   <si>
     <t>key</t>
   </si>
@@ -574,6 +574,399 @@
   </si>
   <si>
     <t>International Potato Center</t>
+  </si>
+  <si>
+    <t>Amilcar</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Mirna</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Néstor</t>
+  </si>
+  <si>
+    <t>Carlo</t>
+  </si>
+  <si>
+    <t>Yosef</t>
+  </si>
+  <si>
+    <t>Arnab</t>
+  </si>
+  <si>
+    <t>Juan Carlos</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Fadhili</t>
+  </si>
+  <si>
+    <t>Basazen </t>
+  </si>
+  <si>
+    <t>Dejene K.</t>
+  </si>
+  <si>
+    <t>Hyacinthe</t>
+  </si>
+  <si>
+    <t>Mirjam</t>
+  </si>
+  <si>
+    <t>Neeraj</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>Jose Gabriel</t>
+  </si>
+  <si>
+    <t>Béla</t>
+  </si>
+  <si>
+    <t>Hale Ann</t>
+  </si>
+  <si>
+    <t>Jacob </t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Angudubo</t>
+  </si>
+  <si>
+    <t>Arnaud</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t>Borman</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Chaves</t>
+  </si>
+  <si>
+    <t>Fadda</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>Kalemera</t>
+  </si>
+  <si>
+    <t>Kasubiri</t>
+  </si>
+  <si>
+    <t>Lakew</t>
+  </si>
+  <si>
+    <t>Mengistu</t>
+  </si>
+  <si>
+    <t>Nyirahabimana</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t>Schaap</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Ssali</t>
+  </si>
+  <si>
+    <t>Steinke</t>
+  </si>
+  <si>
+    <t>Suchini</t>
+  </si>
+  <si>
+    <t>Teeken</t>
+  </si>
+  <si>
+    <t>Tufan</t>
+  </si>
+  <si>
+    <t>Ulzen</t>
+  </si>
+  <si>
+    <t>0000-0002-6876-7158</t>
+  </si>
+  <si>
+    <t>Gebrehawaryat Kidane</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Iragaba</t>
+  </si>
+  <si>
+    <t>An Ritah</t>
+  </si>
+  <si>
+    <t>Nanyonjo</t>
+  </si>
+  <si>
+    <t>Centro Agrómico Tropical de Investigación y Enseñanza</t>
+  </si>
+  <si>
+    <t>datacurator</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Universidad de Costa Rica</t>
+  </si>
+  <si>
+    <t>0000-0001-8465-8130</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Innovación y Transferencia en Tecnología Agropecuaria</t>
+  </si>
+  <si>
+    <t>0000-0002-1915-3213</t>
+  </si>
+  <si>
+    <t>International Center for Tropical Agriculture</t>
+  </si>
+  <si>
+    <t>Ethiopian Biodiversity Institute</t>
+  </si>
+  <si>
+    <t>Zamorano University</t>
+  </si>
+  <si>
+    <t>Tuberosum Technologies Inc.</t>
+  </si>
+  <si>
+    <t>National Crop Resources Research Institute</t>
+  </si>
+  <si>
+    <t>Reputed Agriculture 4 Development Stichting &amp; Foundation</t>
+  </si>
+  <si>
+    <t>Erna</t>
+  </si>
+  <si>
+    <t>Abidin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bello </t>
+  </si>
+  <si>
+    <t>Abolore</t>
+  </si>
+  <si>
+    <t>Maryam</t>
+  </si>
+  <si>
+    <t>Dawud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gospel </t>
+  </si>
+  <si>
+    <t>Edughaen</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>Gaya Mohammed</t>
+  </si>
+  <si>
+    <t>Gomez Cerna</t>
+  </si>
+  <si>
+    <t>Kadege</t>
+  </si>
+  <si>
+    <t>Assefa</t>
+  </si>
+  <si>
+    <t>Kawuki</t>
+  </si>
+  <si>
+    <t>Kilango</t>
+  </si>
+  <si>
+    <t>Mbiu</t>
+  </si>
+  <si>
+    <t>Moyo</t>
+  </si>
+  <si>
+    <t>Nduwumuremyi</t>
+  </si>
+  <si>
+    <t>Nshimiyimana</t>
+  </si>
+  <si>
+    <t>Olaosebikan</t>
+  </si>
+  <si>
+    <t>Oteng-Fripong</t>
+  </si>
+  <si>
+    <t>Rukundo</t>
+  </si>
+  <si>
+    <t>Rutsaert</t>
+  </si>
+  <si>
+    <t>Tengey</t>
+  </si>
+  <si>
+    <t>Tuyishime</t>
+  </si>
+  <si>
+    <t>Lawan Umar</t>
+  </si>
+  <si>
+    <t>Onwuka</t>
+  </si>
+  <si>
+    <t>Madu</t>
+  </si>
+  <si>
+    <t>Yeye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanusi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teshale M. </t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julius </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mukani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olamide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placide </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pieter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tessy Ugo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theophilus Kwabla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athanase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean Claude </t>
+  </si>
+  <si>
+    <t>One Acre Fund</t>
+  </si>
+  <si>
+    <t>Rekiya O.</t>
+  </si>
+  <si>
+    <t>Abdulmalik</t>
+  </si>
+  <si>
+    <t>Ahmadu Bello University</t>
+  </si>
+  <si>
+    <t>Lake Chad Research Institute</t>
+  </si>
+  <si>
+    <t>Bayero University</t>
+  </si>
+  <si>
+    <t>Fundación para la Investigación Participativa con Agricultores de Honduras</t>
+  </si>
+  <si>
+    <t>Rwanda Agriculture and Animal Resources Development Board</t>
+  </si>
+  <si>
+    <t>Savanna Agricultural Research Institute</t>
+  </si>
+  <si>
+    <t>Institute for Agricultural Research</t>
+  </si>
+  <si>
+    <t>National Root Crops Research Institute</t>
+  </si>
+  <si>
+    <t>Elysé</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
   </si>
 </sst>
 </file>
@@ -1079,16 +1472,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
@@ -1154,525 +1547,1310 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="D5" t="s">
         <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="D6" t="s">
         <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
       </c>
       <c r="D8" t="s">
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
         <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
         <v>140</v>
       </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
         <v>144</v>
       </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>233</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>284</v>
+      </c>
+      <c r="B38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" t="s">
+        <v>245</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" t="s">
+        <v>144</v>
+      </c>
+      <c r="E76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B88" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C88" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D88" t="s">
         <v>144</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E88" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B90" t="s">
         <v>54</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C90" t="s">
         <v>170</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D90" t="s">
         <v>144</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E90" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F89">
+    <sortCondition ref="B1:B89"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EA7FC0-22AC-0047-84D5-851829FA45E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDAA13-4D62-F549-B0E1-D5D32821F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="500" windowWidth="55880" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="323">
   <si>
     <t>key</t>
   </si>
@@ -967,6 +967,33 @@
   </si>
   <si>
     <t>Kalpana</t>
+  </si>
+  <si>
+    <t>checked_dataset</t>
+  </si>
+  <si>
+    <t>Elly</t>
+  </si>
+  <si>
+    <t>Atieno</t>
+  </si>
+  <si>
+    <t>Mugo</t>
+  </si>
+  <si>
+    <t>0000-0002-1653-2947</t>
+  </si>
+  <si>
+    <t>0000-0002-4354-1785</t>
+  </si>
+  <si>
+    <t>Shadrack</t>
+  </si>
+  <si>
+    <t>Nyawade</t>
+  </si>
+  <si>
+    <t>0000-0003-4113-3400</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1039,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1035,6 +1062,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1043,7 +1081,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1056,6 +1094,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,23 +1513,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1507,8 +1549,11 @@
       <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1527,8 +1572,11 @@
       <c r="F2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1544,8 +1592,11 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -1558,8 +1609,11 @@
       <c r="E4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>252</v>
       </c>
@@ -1572,8 +1626,11 @@
       <c r="E5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>254</v>
       </c>
@@ -1586,8 +1643,11 @@
       <c r="E6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1603,8 +1663,11 @@
       <c r="E7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1620,8 +1683,11 @@
       <c r="E8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="E9" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -1648,8 +1717,11 @@
       <c r="E10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -1662,8 +1734,11 @@
       <c r="E11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>285</v>
       </c>
@@ -1676,193 +1751,235 @@
       <c r="E12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>186</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>211</v>
       </c>
-      <c r="D14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>187</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>212</v>
       </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>167</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>188</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>213</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>240</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>189</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>214</v>
       </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>190</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>215</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>243</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>120</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>121</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>145</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>178</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>179</v>
       </c>
-      <c r="D22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" t="s">
         <v>77</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>256</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>257</v>
       </c>
-      <c r="D23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>108</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -1870,227 +1987,266 @@
       <c r="E25" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>258</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>259</v>
       </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>260</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>261</v>
       </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>191</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>216</v>
-      </c>
-      <c r="D28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" t="s">
-        <v>173</v>
       </c>
       <c r="D29" t="s">
         <v>144</v>
       </c>
       <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>282</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>262</v>
       </c>
-      <c r="D30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>192</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>234</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>233</v>
       </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>283</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>263</v>
       </c>
-      <c r="D32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>193</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>217</v>
       </c>
-      <c r="D33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>194</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>218</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>245</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>28</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>100</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>141</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>145</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>235</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>236</v>
       </c>
-      <c r="D37" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>284</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>264</v>
       </c>
-      <c r="D38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>195</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>219</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
@@ -2098,44 +2254,50 @@
       <c r="E40" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>286</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>266</v>
       </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>287</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>267</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
@@ -2144,136 +2306,157 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>197</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="D44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>294</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>278</v>
       </c>
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>97</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>296</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>280</v>
       </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>132</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>133</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>131</v>
       </c>
-      <c r="D49" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>57</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>172</v>
       </c>
-      <c r="D50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>135</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>136</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" t="s">
-        <v>268</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
@@ -2281,575 +2464,734 @@
       <c r="E52" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>180</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>181</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>144</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>198</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>222</v>
       </c>
-      <c r="D54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>122</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>289</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>269</v>
       </c>
-      <c r="D56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" t="s">
+        <v>317</v>
+      </c>
+      <c r="C58" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
+        <v>182</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>105</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>104</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
         <v>144</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>75</v>
       </c>
-      <c r="D58" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B61" t="s">
         <v>81</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>174</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E61" t="s">
         <v>77</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F61" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>237</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>238</v>
       </c>
-      <c r="D60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>299</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>270</v>
       </c>
-      <c r="D61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>300</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>271</v>
       </c>
-      <c r="D62" t="s">
-        <v>111</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D64" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>199</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>223</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D66" t="s">
         <v>240</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E66" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>78</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>171</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D67" t="s">
         <v>144</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E67" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>290</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>272</v>
       </c>
-      <c r="D65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>87</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D66" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>295</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>279</v>
       </c>
-      <c r="D67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>291</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>273</v>
       </c>
-      <c r="D68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>117</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>118</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" t="s">
         <v>119</v>
       </c>
-      <c r="D69" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>194</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>224</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" t="s">
         <v>245</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D73" t="s">
         <v>144</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E73" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>292</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>274</v>
       </c>
-      <c r="D71" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D74" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>293</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B75" t="s">
         <v>275</v>
       </c>
-      <c r="D72" t="s">
-        <v>111</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>200</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B76" t="s">
         <v>225</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D76" t="s">
         <v>240</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E76" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>94</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B77" t="s">
         <v>95</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C77" t="s">
         <v>106</v>
       </c>
-      <c r="D74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>201</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>226</v>
       </c>
-      <c r="D75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>313</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B79" t="s">
         <v>226</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D79" t="s">
         <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>115</v>
-      </c>
-      <c r="B77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B78" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" t="s">
-        <v>169</v>
-      </c>
-      <c r="D78" t="s">
-        <v>144</v>
-      </c>
-      <c r="E78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
       </c>
       <c r="E79" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>203</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>228</v>
       </c>
-      <c r="D80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>204</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>229</v>
       </c>
-      <c r="D81" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>205</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>230</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D85" t="s">
         <v>144</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E85" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>298</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>276</v>
       </c>
-      <c r="D83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>206</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>231</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D87" t="s">
         <v>144</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E87" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>312</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>277</v>
       </c>
-      <c r="D85" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>207</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>232</v>
       </c>
-      <c r="D86" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>137</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>138</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>139</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D90" t="s">
         <v>28</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E90" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>66</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>67</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C91" t="s">
         <v>103</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D91" t="s">
         <v>144</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E91" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>297</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>281</v>
       </c>
-      <c r="D89" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>53</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>54</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C93" t="s">
         <v>170</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D93" t="s">
         <v>144</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E93" t="s">
         <v>50</v>
       </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F89">
-    <sortCondition ref="B1:B89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F92">
+    <sortCondition ref="B1:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDAA13-4D62-F549-B0E1-D5D32821F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E7AA1-41A9-BD47-8C21-87D5D4E59949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="55880" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="325">
   <si>
     <t>key</t>
   </si>
@@ -994,6 +994,12 @@
   </si>
   <si>
     <t>0000-0003-4113-3400</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Chase</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1513,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1899,16 +1905,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>323</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>324</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1916,19 +1922,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1936,19 +1939,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1956,16 +1959,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1973,19 +1979,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>305</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1993,10 +1996,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>111</v>
@@ -2010,16 +2016,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
         <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2027,64 +2033,64 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2092,19 +2098,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2112,16 +2115,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
       </c>
       <c r="D33" t="s">
         <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2129,16 +2135,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>307</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2146,19 +2152,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C35" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2166,19 +2169,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2186,22 +2189,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2209,16 +2209,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>236</v>
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2226,16 +2232,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>250</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2243,16 +2249,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
         <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2260,10 +2266,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
         <v>111</v>
@@ -2277,16 +2283,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
         <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2294,27 +2300,27 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="D44" t="s">
         <v>111</v>
@@ -2325,67 +2331,67 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>221</v>
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>127</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
         <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>310</v>
+        <v>247</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2393,16 +2399,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2410,19 +2416,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" t="s">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
       </c>
       <c r="E50" t="s">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2430,19 +2433,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2450,19 +2453,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
         <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2470,10 +2473,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
@@ -2481,36 +2487,36 @@
       <c r="E53" t="s">
         <v>128</v>
       </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E55" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2518,16 +2524,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2535,16 +2541,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="D57" t="s">
         <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2552,13 +2558,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B58" t="s">
-        <v>317</v>
-      </c>
-      <c r="C58" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
         <v>111</v>
@@ -2572,19 +2575,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2592,16 +2595,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2609,19 +2615,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2629,16 +2632,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>77</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2646,16 +2652,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2663,16 +2669,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
         <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2680,16 +2686,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B65" t="s">
-        <v>321</v>
-      </c>
-      <c r="C65" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
         <v>182</v>
@@ -2700,16 +2703,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>321</v>
+      </c>
+      <c r="C66" t="s">
+        <v>322</v>
       </c>
       <c r="D66" t="s">
         <v>240</v>
       </c>
       <c r="E66" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2717,19 +2723,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="D67" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2737,30 +2740,30 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>290</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>272</v>
-      </c>
-      <c r="D68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="D69" t="s">
         <v>111</v>
@@ -2772,18 +2775,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>88</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="D70" t="s">
         <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>62</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2791,53 +2797,50 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B71" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D71" t="s">
         <v>111</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s">
         <v>111</v>
       </c>
       <c r="E72" t="s">
-        <v>63</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2845,47 +2848,50 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>245</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E74" t="s">
-        <v>182</v>
+        <v>248</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D75" t="s">
         <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2893,19 +2899,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2913,16 +2916,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>95</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
       </c>
       <c r="D78" t="s">
         <v>111</v>
       </c>
       <c r="E78" t="s">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2930,16 +2936,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>313</v>
+        <v>201</v>
       </c>
       <c r="B79" t="s">
         <v>226</v>
       </c>
       <c r="D79" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2947,16 +2953,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2964,19 +2970,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2984,16 +2987,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3001,16 +3007,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
         <v>111</v>
       </c>
       <c r="E83" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3018,16 +3024,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" t="s">
         <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3035,16 +3041,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E85" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3052,47 +3058,47 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E86" t="s">
-        <v>309</v>
+        <v>62</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>241</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>312</v>
+        <v>206</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E88" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3100,16 +3106,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="D89" t="s">
         <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3117,19 +3123,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3137,19 +3140,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3157,41 +3160,61 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>297</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
-        <v>281</v>
+        <v>67</v>
+      </c>
+      <c r="C92" t="s">
+        <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E92" t="s">
-        <v>310</v>
+        <v>63</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="D93" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>53</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>54</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C94" t="s">
         <v>170</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>144</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>50</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F92">
-    <sortCondition ref="B1:B92"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F93">
+    <sortCondition ref="B1:B93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E7AA1-41A9-BD47-8C21-87D5D4E59949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2277F974-E0C6-A64F-A65A-488E1FFF8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <sheet name="communities" sheetId="4" r:id="rId5"/>
     <sheet name="dates" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">authors!$A$1:$G$94</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -1521,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2061,6 +2064,9 @@
       <c r="E29" t="s">
         <v>301</v>
       </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2075,6 +2081,9 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2328,6 +2337,9 @@
       <c r="E44" t="s">
         <v>128</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2345,6 +2357,9 @@
       <c r="E45" t="s">
         <v>128</v>
       </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2376,6 +2391,9 @@
       <c r="E47" t="s">
         <v>310</v>
       </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2504,6 +2522,9 @@
       <c r="E54" t="s">
         <v>128</v>
       </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2825,6 +2846,9 @@
       <c r="E72" t="s">
         <v>309</v>
       </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -2879,6 +2903,9 @@
       <c r="E75" t="s">
         <v>182</v>
       </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -3086,6 +3113,9 @@
       <c r="E87" t="s">
         <v>309</v>
       </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -3191,6 +3221,9 @@
       <c r="E93" t="s">
         <v>310</v>
       </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -3213,6 +3246,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G94" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F93">
     <sortCondition ref="B1:B93"/>
   </sortState>

--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2277F974-E0C6-A64F-A65A-488E1FFF8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EE2455-DB34-484F-99BA-FC050DDA0F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="dates" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">authors!$A$1:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">authors!$A$1:$G$98</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="367">
   <si>
     <t>key</t>
   </si>
@@ -288,9 +288,6 @@
     <t>2025-09-06</t>
   </si>
   <si>
-    <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. ‘Triadic’ refers to the sets of three technology options that are compared by each participant. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. […] Between 2011 and 2025 the tricot approach was applied in XX countries in Central America, Sub-Saharan Africa and Asia with YY crops.</t>
-  </si>
-  <si>
     <t>Patrick Obia</t>
   </si>
   <si>
@@ -1003,6 +1000,135 @@
   </si>
   <si>
     <t>Chase</t>
+  </si>
+  <si>
+    <t>0000-0002-6020-5919</t>
+  </si>
+  <si>
+    <t>0000-0003-2859-1618</t>
+  </si>
+  <si>
+    <t>0000-0001-5774-9029</t>
+  </si>
+  <si>
+    <t>0009-0002-4699-9094</t>
+  </si>
+  <si>
+    <t>0000-0002-5177-6963</t>
+  </si>
+  <si>
+    <t>0000-0003-1470-1150</t>
+  </si>
+  <si>
+    <t>0000-0002-4104-8671</t>
+  </si>
+  <si>
+    <t>0000-0001-5742-702X</t>
+  </si>
+  <si>
+    <t>0000-0002-3150-1532</t>
+  </si>
+  <si>
+    <t>0000-0002-5323-4244</t>
+  </si>
+  <si>
+    <t>000-0001-6083-1461</t>
+  </si>
+  <si>
+    <t>0000-0003-4574-7186</t>
+  </si>
+  <si>
+    <t>0000-0001-7018-2266</t>
+  </si>
+  <si>
+    <t>0000-0002-5859-6455</t>
+  </si>
+  <si>
+    <t>0000-0001-5107-6564</t>
+  </si>
+  <si>
+    <t>0000-0002-0601-8522</t>
+  </si>
+  <si>
+    <t>0000-0003-3075-6207</t>
+  </si>
+  <si>
+    <t>0000-0002-5672-5735</t>
+  </si>
+  <si>
+    <t>0000-0003-3695-7827</t>
+  </si>
+  <si>
+    <t>0000-0002-5771-6048</t>
+  </si>
+  <si>
+    <t>0000-0001-5658-2669</t>
+  </si>
+  <si>
+    <t>0000-0002-6731-152X</t>
+  </si>
+  <si>
+    <t>0000-0003-1713-4390</t>
+  </si>
+  <si>
+    <t>0000-0003-3076-7299</t>
+  </si>
+  <si>
+    <t>0009-0007-7709-8113</t>
+  </si>
+  <si>
+    <t>0000-0002-5153-9191</t>
+  </si>
+  <si>
+    <t>World Coffee Research</t>
+  </si>
+  <si>
+    <t>0000-0002-0098-3567</t>
+  </si>
+  <si>
+    <t>0000-0001-9691-6088</t>
+  </si>
+  <si>
+    <t>0009-0008-3407-9112</t>
+  </si>
+  <si>
+    <t>0000-0002-8143-6564</t>
+  </si>
+  <si>
+    <t>0000-0001-7378-1002</t>
+  </si>
+  <si>
+    <t>Legesse</t>
+  </si>
+  <si>
+    <t>Abate</t>
+  </si>
+  <si>
+    <t>Stichting Wageningen Research</t>
+  </si>
+  <si>
+    <t>Mohammed</t>
+  </si>
+  <si>
+    <t>Hassena Beko</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>Mawia</t>
+  </si>
+  <si>
+    <t>Mercy</t>
+  </si>
+  <si>
+    <t>Mbugua</t>
+  </si>
+  <si>
+    <t>0000-0001-6353-960X</t>
+  </si>
+  <si>
+    <t>The triadic comparison of technologies (tricot) is a citizen science approach for testing technology options in their target environments, which has been applied to on-farm testing of crop varieties. ‘Triadic’ refers to the sets of three technology options that are compared by each participant. In the approach, participants are invited to test a anonymous set of three technologies (out of a larger number, generally between 5 to 20) randomly assigned. Between 2011 and 2025 the tricot approach was applied in more than 25 countries in across Africa, Asia, Europe and Latin America with more than 30 crops.</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1445,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1469,7 +1595,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1493,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1501,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1509,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1522,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView zoomScale="217" zoomScaleNormal="217" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1685,7 @@
         <v>21</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,16 +1733,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1624,16 +1750,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1641,16 +1767,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1658,19 +1784,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1678,19 +1801,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1698,16 +1821,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1715,16 +1841,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1732,13 +1861,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>50</v>
@@ -1749,16 +1881,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1766,19 +1901,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1786,16 +1921,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1803,16 +1941,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>326</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1820,16 +1961,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1837,16 +1978,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>211</v>
+      </c>
+      <c r="C17" t="s">
+        <v>336</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1854,16 +1998,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1871,16 +2015,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="C19" t="s">
+        <v>325</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1888,19 +2035,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1908,16 +2052,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1925,16 +2072,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1942,19 +2092,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1962,19 +2109,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1982,16 +2129,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>338</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1999,19 +2152,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>339</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2019,16 +2172,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" t="s">
         <v>113</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>114</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2036,16 +2192,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2053,16 +2209,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>301</v>
+        <v>62</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2070,16 +2226,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2087,19 +2243,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2107,16 +2263,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>282</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>262</v>
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2124,19 +2283,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2144,16 +2300,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>233</v>
+      </c>
+      <c r="C34" t="s">
+        <v>232</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" t="s">
-        <v>307</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2161,16 +2320,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>306</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2178,19 +2337,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2198,19 +2357,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -2218,22 +2374,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2241,16 +2394,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -2258,16 +2414,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>50</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2275,16 +2437,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>347</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2292,16 +2457,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2309,16 +2474,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>218</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2326,16 +2494,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2343,19 +2511,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>285</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>249</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2363,16 +2534,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2380,16 +2551,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>129</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>127</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2397,19 +2571,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>246</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2417,16 +2591,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>309</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2434,16 +2608,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>280</v>
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2451,19 +2628,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2471,19 +2645,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2491,19 +2665,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2511,16 +2685,19 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2528,16 +2705,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2545,16 +2725,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2562,16 +2742,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2579,16 +2759,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>364</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2596,19 +2776,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2616,19 +2796,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2636,16 +2816,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2653,19 +2833,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>268</v>
+      </c>
+      <c r="C62" t="s">
+        <v>344</v>
       </c>
       <c r="D62" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F62" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2673,16 +2853,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
+        <v>317</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2690,16 +2873,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2707,16 +2893,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>345</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2724,19 +2913,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
-      </c>
-      <c r="C66" t="s">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>77</v>
+      </c>
+      <c r="F66" t="s">
+        <v>82</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2744,16 +2933,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>346</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2761,19 +2953,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2781,36 +2970,36 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>168</v>
+        <v>320</v>
+      </c>
+      <c r="C70" t="s">
+        <v>321</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2818,16 +3007,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2835,16 +3024,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2852,39 +3044,39 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C74" t="s">
-        <v>245</v>
+        <v>87</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>248</v>
+        <v>62</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2892,16 +3084,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2909,16 +3101,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>334</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E76" t="s">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2926,16 +3121,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2943,19 +3141,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E78" t="s">
-        <v>63</v>
+        <v>247</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2963,16 +3161,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2980,16 +3178,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>274</v>
+      </c>
+      <c r="C80" t="s">
+        <v>352</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2997,16 +3198,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>224</v>
+      </c>
+      <c r="C81" t="s">
+        <v>353</v>
       </c>
       <c r="D81" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3014,19 +3218,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3034,16 +3238,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3051,16 +3255,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>330</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E84" t="s">
-        <v>50</v>
+        <v>181</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3068,16 +3275,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3085,16 +3292,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3102,16 +3312,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
+        <v>226</v>
+      </c>
+      <c r="C87" t="s">
+        <v>354</v>
       </c>
       <c r="D87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3119,16 +3332,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="C88" t="s">
+        <v>331</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3136,16 +3352,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3153,16 +3369,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>229</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -3170,19 +3389,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
-      </c>
-      <c r="C91" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
+        <v>308</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3190,19 +3406,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E92" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3210,16 +3426,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3227,16 +3443,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>355</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>50</v>
@@ -3245,10 +3461,87 @@
         <v>1</v>
       </c>
     </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" t="s">
+        <v>139</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" t="s">
+        <v>309</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" t="s">
+        <v>50</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G94" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F93">
-    <sortCondition ref="B1:B93"/>
+  <autoFilter ref="A1:G98" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F97">
+    <sortCondition ref="B1:B97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3270,107 +3563,107 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3455,13 +3748,13 @@
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
       </c>
       <c r="D5">
         <v>81260859</v>
